--- a/back/трекер (Копия).xlsx
+++ b/back/трекер (Копия).xlsx
@@ -319,7 +319,7 @@
   <fonts count="1">
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -860,7 +860,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
